--- a/gcms_raw_dec2022.xlsx
+++ b/gcms_raw_dec2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/alanna_leale_wur_nl/Documents/2022_fall_exp/data/gcms/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/alanna_leale_wur_nl/Documents/2022_fall_exp_leale/data/gcms/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{BBE60411-4ED6-4C26-B5B5-68F99698E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D12CBEDB-A4A2-6048-BA9D-B75F0FA7A145}"/>
+  <xr:revisionPtr revIDLastSave="145" documentId="8_{BBE60411-4ED6-4C26-B5B5-68F99698E94C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C16893F7-680B-D649-9EAB-4671B692ABBA}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="500" windowWidth="34920" windowHeight="17500" activeTab="4" xr2:uid="{F6B670A7-7877-4796-90F8-0440A564778A}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" activeTab="4" xr2:uid="{F6B670A7-7877-4796-90F8-0440A564778A}"/>
   </bookViews>
   <sheets>
     <sheet name="raw_100" sheetId="1" r:id="rId1"/>
@@ -1172,9 +1172,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1212,7 +1212,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1318,7 +1318,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1460,7 +1460,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -66025,9 +66025,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225740A0-042B-E641-AEAD-25734BD03FC5}">
   <dimension ref="A1:AI188"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="23" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
+    <sheetView zoomScale="125" zoomScaleNormal="23" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -86187,13 +86185,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{822C5994-820D-3249-AB34-2048543A0C1B}">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="159" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="159" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="148.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
